--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_90.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_90.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>1.8612</v>
+        <v>2.0345</v>
       </c>
       <c r="J3" t="n">
-        <v>26.73</v>
+        <v>26.4</v>
       </c>
       <c r="K3" t="n">
-        <v>893.04</v>
+        <v>964.24</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.24</v>
+        <v>2.21</v>
       </c>
       <c r="R3" t="n">
-        <v>919.8955</v>
+        <v>976.1007</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.12</v>
+        <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>1.7034</v>
+        <v>1.8583</v>
       </c>
       <c r="J4" t="n">
-        <v>23.24</v>
+        <v>15.57</v>
       </c>
       <c r="K4" t="n">
-        <v>710.66</v>
+        <v>519.5700000000001</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="R4" t="n">
-        <v>854.8182</v>
+        <v>880.9969</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>8.0145</v>
+        <v>8.6503</v>
       </c>
       <c r="J5" t="n">
-        <v>27.11</v>
+        <v>26.65</v>
       </c>
       <c r="K5" t="n">
-        <v>3900.1</v>
+        <v>4139.53</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>8.31</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="R5" t="n">
-        <v>3416.3807</v>
+        <v>3559.1904</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>9.5871</v>
+        <v>10.4933</v>
       </c>
       <c r="J6" t="n">
-        <v>26.95</v>
+        <v>26.71</v>
       </c>
       <c r="K6" t="n">
-        <v>4639.4</v>
+        <v>5032.38</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>6.74</v>
+        <v>6.83</v>
       </c>
       <c r="R6" t="n">
-        <v>2773.8172</v>
+        <v>3023.1201</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3314</v>
+        <v>4.7364</v>
       </c>
       <c r="J7" t="n">
-        <v>31.78</v>
+        <v>31.89</v>
       </c>
       <c r="K7" t="n">
-        <v>2471.2</v>
+        <v>2711.54</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>4.88</v>
+        <v>4.94</v>
       </c>
       <c r="R7" t="n">
-        <v>2006.6201</v>
+        <v>2186.7216</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>50.4532</v>
+        <v>55.9059</v>
       </c>
       <c r="J8" t="n">
-        <v>4.12</v>
+        <v>4.14</v>
       </c>
       <c r="K8" t="n">
-        <v>3732.38</v>
+        <v>4155.29</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>8.960000000000001</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="R8" t="n">
-        <v>3683.7458</v>
+        <v>4034.5147</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-4p78125mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-4p78125mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>11.9413</v>
+        <v>14.5615</v>
       </c>
       <c r="J9" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="K9" t="n">
-        <v>408.07</v>
+        <v>485.32</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="R9" t="n">
-        <v>327.311</v>
+        <v>379.1683</v>
       </c>
     </row>
   </sheetData>
